--- a/data/trans_orig/P24D-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>87221</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>70972</v>
+        <v>72023</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102899</v>
+        <v>103050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.33197682159384</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2701299695196625</v>
+        <v>0.2741316838703094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3916502474886061</v>
+        <v>0.3922227654064395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -765,19 +765,19 @@
         <v>91767</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77252</v>
+        <v>77441</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105869</v>
+        <v>107035</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4150369409562572</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3493887772316244</v>
+        <v>0.3502443876421694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4788180594766864</v>
+        <v>0.4840905279195546</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>177</v>
@@ -786,19 +786,19 @@
         <v>178988</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159174</v>
+        <v>154467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199357</v>
+        <v>198332</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3699337205068632</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3289820626870417</v>
+        <v>0.3192528546869431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4120326196458396</v>
+        <v>0.4099150909793889</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>175512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159834</v>
+        <v>159683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>191761</v>
+        <v>190710</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6680231784061601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.608349752511394</v>
+        <v>0.6077772345935607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7298700304803374</v>
+        <v>0.7258683161296907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -836,19 +836,19 @@
         <v>129338</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115236</v>
+        <v>114070</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143853</v>
+        <v>143664</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5849630590437428</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5211819405233137</v>
+        <v>0.5159094720804455</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6506112227683757</v>
+        <v>0.6497556123578305</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>291</v>
@@ -857,19 +857,19 @@
         <v>304850</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>284481</v>
+        <v>285506</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>324664</v>
+        <v>329371</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6300662794931368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5879673803541601</v>
+        <v>0.5900849090206111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6710179373129583</v>
+        <v>0.6807471453130568</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>147827</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128674</v>
+        <v>127562</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169956</v>
+        <v>170006</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2995872155271238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2607707345413385</v>
+        <v>0.2585172106589188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3444347357154949</v>
+        <v>0.3445360266714661</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -982,19 +982,19 @@
         <v>90754</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75540</v>
+        <v>75363</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107081</v>
+        <v>108165</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3296086106057847</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2743524730728328</v>
+        <v>0.2737082738029234</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3889062519220952</v>
+        <v>0.392842338883762</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>224</v>
@@ -1003,19 +1003,19 @@
         <v>238581</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>213460</v>
+        <v>212515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>265821</v>
+        <v>264628</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3103394697703898</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2776625077009695</v>
+        <v>0.2764338712703149</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3457724961619397</v>
+        <v>0.3442208247827691</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>345609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>323480</v>
+        <v>323430</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364762</v>
+        <v>365874</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7004127844728762</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6555652642845051</v>
+        <v>0.6554639733285338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7392292654586613</v>
+        <v>0.7414827893410806</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>184</v>
@@ -1053,19 +1053,19 @@
         <v>184585</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>168258</v>
+        <v>167174</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>199799</v>
+        <v>199976</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6703913893942154</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6110937480779048</v>
+        <v>0.6071576611162379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7256475269271671</v>
+        <v>0.7262917261970765</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>525</v>
@@ -1074,19 +1074,19 @@
         <v>530194</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>502954</v>
+        <v>504147</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>555315</v>
+        <v>556260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6896605302296102</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6542275038380607</v>
+        <v>0.6557791752172309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7223374922990308</v>
+        <v>0.7235661287296853</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>133457</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112321</v>
+        <v>115330</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153252</v>
+        <v>153814</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2942294590543144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.247631136864136</v>
+        <v>0.2542653817069829</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3378716761290187</v>
+        <v>0.3391108676826703</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -1199,19 +1199,19 @@
         <v>76682</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62797</v>
+        <v>62451</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92710</v>
+        <v>91512</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3145876859784043</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2576258191217085</v>
+        <v>0.2562061880206446</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3803457255191767</v>
+        <v>0.3754287036398939</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>205</v>
@@ -1220,19 +1220,19 @@
         <v>210138</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>187336</v>
+        <v>185949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236645</v>
+        <v>235317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3013456704416436</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2686462133976115</v>
+        <v>0.2666580552424962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3393571165794196</v>
+        <v>0.3374534541551178</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>320124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300329</v>
+        <v>299767</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>341260</v>
+        <v>338251</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7057705409456856</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6621283238709813</v>
+        <v>0.6608891323173296</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7523688631358639</v>
+        <v>0.7457346182930171</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>165</v>
@@ -1270,19 +1270,19 @@
         <v>167071</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151043</v>
+        <v>152241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180956</v>
+        <v>181302</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6854123140215957</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6196542744808233</v>
+        <v>0.624571296360106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7423741808782915</v>
+        <v>0.7437938119793551</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>482</v>
@@ -1291,19 +1291,19 @@
         <v>487195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>460688</v>
+        <v>462016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>509997</v>
+        <v>511384</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6986543295583565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6606428834205808</v>
+        <v>0.6625465458448823</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7313537866023886</v>
+        <v>0.7333419447575038</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>48324</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37611</v>
+        <v>36439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61776</v>
+        <v>61214</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3061880625513507</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2383121867059589</v>
+        <v>0.2308819964683069</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3914252729480778</v>
+        <v>0.3878593241622373</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1416,19 +1416,19 @@
         <v>32905</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24561</v>
+        <v>24026</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42634</v>
+        <v>42002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.333655261688127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2490443332584565</v>
+        <v>0.243619910974538</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4322981163614369</v>
+        <v>0.4258935334576963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1437,19 +1437,19 @@
         <v>81229</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66414</v>
+        <v>67875</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96169</v>
+        <v>96936</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3167511122660643</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2589808344114889</v>
+        <v>0.2646759717995679</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3750089803322441</v>
+        <v>0.3779992614046845</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>109500</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96048</v>
+        <v>96610</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>120213</v>
+        <v>121385</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6938119374486493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6085747270519227</v>
+        <v>0.6121406758377627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7616878132940412</v>
+        <v>0.7691180035316935</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -1487,19 +1487,19 @@
         <v>65716</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55987</v>
+        <v>56619</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74060</v>
+        <v>74595</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6663447383118729</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5677018836385632</v>
+        <v>0.5741064665423036</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7509556667415436</v>
+        <v>0.7563800890254621</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>168</v>
@@ -1508,19 +1508,19 @@
         <v>175216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160276</v>
+        <v>159509</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>190031</v>
+        <v>188570</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6832488877339357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6249910196677559</v>
+        <v>0.6220007385953155</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7410191655885106</v>
+        <v>0.7353240282004321</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>416829</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>384324</v>
+        <v>384392</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>449559</v>
+        <v>453498</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3047945533712416</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2810259283994386</v>
+        <v>0.2810756704846805</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3287276605684461</v>
+        <v>0.3316073696789604</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>283</v>
@@ -1633,19 +1633,19 @@
         <v>292108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265245</v>
+        <v>265136</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>320120</v>
+        <v>318012</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3482375720818232</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3162127673405606</v>
+        <v>0.3160823768839645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3816317625878662</v>
+        <v>0.3791186292895415</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>686</v>
@@ -1654,19 +1654,19 @@
         <v>708937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>665384</v>
+        <v>666498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>753862</v>
+        <v>752414</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3213105549269394</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3015709832227945</v>
+        <v>0.3020762294722615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3416717895013813</v>
+        <v>0.3410157815713052</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>950745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>918015</v>
+        <v>914076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>983250</v>
+        <v>983182</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6952054466287584</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6712723394315537</v>
+        <v>0.6683926303210397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7189740716005614</v>
+        <v>0.7189243295153195</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>538</v>
@@ -1704,19 +1704,19 @@
         <v>546710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>518698</v>
+        <v>520806</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>573573</v>
+        <v>573682</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6517624279181768</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6183682374121338</v>
+        <v>0.6208813707104585</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6837872326594396</v>
+        <v>0.6839176231160357</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1466</v>
@@ -1725,19 +1725,19 @@
         <v>1497454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1452529</v>
+        <v>1453977</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1541007</v>
+        <v>1539893</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6786894450730606</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6583282104986189</v>
+        <v>0.6589842184286948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6984290167772059</v>
+        <v>0.6979237705277386</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>240750</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219259</v>
+        <v>217572</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>265729</v>
+        <v>262348</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4843421529313778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4411067480824716</v>
+        <v>0.4377117483787774</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5345948426829602</v>
+        <v>0.5277933915252329</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -2090,19 +2090,19 @@
         <v>195192</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>174543</v>
+        <v>174158</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>213915</v>
+        <v>213683</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.548049567631779</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4900740450090177</v>
+        <v>0.4889935719383418</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6006211977663249</v>
+        <v>0.5999678972504287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>400</v>
@@ -2111,19 +2111,19 @@
         <v>435942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>407149</v>
+        <v>406967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>464807</v>
+        <v>468055</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5109352742342101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4771892723050732</v>
+        <v>0.4769756231320208</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5447663214127829</v>
+        <v>0.5485732974020037</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>256316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231337</v>
+        <v>234718</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277807</v>
+        <v>279494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5156578470686222</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4654051573170399</v>
+        <v>0.4722066084747673</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5588932519175286</v>
+        <v>0.5622882516212228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -2161,19 +2161,19 @@
         <v>160965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142242</v>
+        <v>142474</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181614</v>
+        <v>181999</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4519504323682209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3993788022336751</v>
+        <v>0.4000321027495713</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5099259549909824</v>
+        <v>0.5110064280616582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>390</v>
@@ -2182,19 +2182,19 @@
         <v>417281</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>388416</v>
+        <v>385168</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>446074</v>
+        <v>446256</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4890647257657899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.455233678587217</v>
+        <v>0.4514267025979955</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5228107276949268</v>
+        <v>0.523024376867979</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>189159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>169317</v>
+        <v>169524</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>209760</v>
+        <v>209188</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4673135763891199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4182936291116612</v>
+        <v>0.4188049957838753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5182076301307516</v>
+        <v>0.5167941337428349</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -2307,19 +2307,19 @@
         <v>147997</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>128890</v>
+        <v>129162</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>163032</v>
+        <v>166214</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5140221421704343</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4476621968623451</v>
+        <v>0.4486049081303449</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5662414555432471</v>
+        <v>0.5772956504538803</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>311</v>
@@ -2328,19 +2328,19 @@
         <v>337156</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>307826</v>
+        <v>309656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>365826</v>
+        <v>363601</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4867278926908556</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4443868467066798</v>
+        <v>0.447027790373038</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5281165626466597</v>
+        <v>0.5249049772630517</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>215621</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>195020</v>
+        <v>195592</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>235463</v>
+        <v>235256</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5326864236108801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4817923698692489</v>
+        <v>0.4832058662571656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5817063708883389</v>
+        <v>0.5811950042161252</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -2378,19 +2378,19 @@
         <v>139922</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>124887</v>
+        <v>121705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>159029</v>
+        <v>158757</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4859778578295657</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4337585444567529</v>
+        <v>0.4227043495461197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.552337803137655</v>
+        <v>0.5513950918696554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>337</v>
@@ -2399,19 +2399,19 @@
         <v>355543</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>326873</v>
+        <v>329098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>384873</v>
+        <v>383043</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5132721073091444</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4718834373533401</v>
+        <v>0.4750950227369491</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5556131532933202</v>
+        <v>0.5529722096269621</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>118568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102340</v>
+        <v>99994</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136458</v>
+        <v>137030</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4185115033724857</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3612321504825743</v>
+        <v>0.3529511181934308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.481658011082414</v>
+        <v>0.483675851723677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -2524,19 +2524,19 @@
         <v>91519</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76400</v>
+        <v>76890</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107157</v>
+        <v>106361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4168477727136832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3479836144355425</v>
+        <v>0.3502184613158773</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.488075205842628</v>
+        <v>0.4844490694861901</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>193</v>
@@ -2545,19 +2545,19 @@
         <v>210087</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>187709</v>
+        <v>188718</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>232852</v>
+        <v>232733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4177851133069047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3732843254293407</v>
+        <v>0.3752899829310409</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4630554034872276</v>
+        <v>0.4628201879865872</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>164741</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>146851</v>
+        <v>146279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>180969</v>
+        <v>183315</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5814884966275143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5183419889175861</v>
+        <v>0.5163241482763231</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6387678495174256</v>
+        <v>0.6470488818065693</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -2595,19 +2595,19 @@
         <v>128031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112393</v>
+        <v>113189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143150</v>
+        <v>142660</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5831522272863168</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5119247941573719</v>
+        <v>0.5155509305138098</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6520163855644571</v>
+        <v>0.6497815386841228</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>277</v>
@@ -2616,19 +2616,19 @@
         <v>292772</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270007</v>
+        <v>270126</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>315150</v>
+        <v>314141</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5822148866930953</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5369445965127724</v>
+        <v>0.5371798120134128</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6267156745706597</v>
+        <v>0.6247100170689595</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>77058</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64438</v>
+        <v>64359</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89619</v>
+        <v>90506</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4810142092891633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4022386324189385</v>
+        <v>0.4017471275008592</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5594205684650253</v>
+        <v>0.5649623261471516</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -2741,19 +2741,19 @@
         <v>60432</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49834</v>
+        <v>50163</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70357</v>
+        <v>69919</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5844443235698727</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4819573317533092</v>
+        <v>0.4851325086630723</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.680437887114739</v>
+        <v>0.6761961700135957</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -2762,19 +2762,19 @@
         <v>137489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122822</v>
+        <v>119870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155484</v>
+        <v>154298</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5215858967587157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4659427642747443</v>
+        <v>0.4547462446738872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5898523560720418</v>
+        <v>0.5853549807699711</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>83141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70580</v>
+        <v>69693</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95761</v>
+        <v>95840</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5189857907108367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4405794315349748</v>
+        <v>0.4350376738528483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5977613675810616</v>
+        <v>0.5982528724991406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -2812,19 +2812,19 @@
         <v>42968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33043</v>
+        <v>33481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53566</v>
+        <v>53237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4155556764301272</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.319562112885261</v>
+        <v>0.3238038299864045</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5180426682466908</v>
+        <v>0.514867491336928</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -2833,19 +2833,19 @@
         <v>126109</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>108114</v>
+        <v>109300</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140776</v>
+        <v>143728</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4784141032412843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.410147643927958</v>
+        <v>0.4146450192300288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5340572357252557</v>
+        <v>0.5452537553261128</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>625535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>585985</v>
+        <v>588145</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>668046</v>
+        <v>666154</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4649596046421055</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4355621417926236</v>
+        <v>0.4371678258658994</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.496558405856997</v>
+        <v>0.4951516271171839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>454</v>
@@ -2958,19 +2958,19 @@
         <v>495138</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>465919</v>
+        <v>462876</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>531187</v>
+        <v>529262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5120223299402604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4818070141078132</v>
+        <v>0.4786597042549914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5493000305813847</v>
+        <v>0.5473097607475649</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1028</v>
@@ -2979,19 +2979,19 @@
         <v>1120674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1070570</v>
+        <v>1073970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1170441</v>
+        <v>1173785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4846410035197739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4629733576429822</v>
+        <v>0.4644438617854194</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5061631342983048</v>
+        <v>0.5076094618441743</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>719818</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>677307</v>
+        <v>679199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>759368</v>
+        <v>757208</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5350403953578945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.503441594143003</v>
+        <v>0.5048483728828161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5644378582073766</v>
+        <v>0.5628321741341006</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>437</v>
@@ -3029,19 +3029,19 @@
         <v>471887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>435838</v>
+        <v>437763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>501106</v>
+        <v>504149</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4879776700597396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4506999694186154</v>
+        <v>0.4526902392524354</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5181929858921869</v>
+        <v>0.5213402957450088</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1124</v>
@@ -3050,19 +3050,19 @@
         <v>1191705</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1141938</v>
+        <v>1138594</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1241809</v>
+        <v>1238409</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5153589964802261</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4938368657016951</v>
+        <v>0.4923905381558261</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5370266423570178</v>
+        <v>0.5355561382145806</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>210991</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>188893</v>
+        <v>189071</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>234767</v>
+        <v>233919</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4290807404194315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3841405428491561</v>
+        <v>0.384503839644754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4774335846479709</v>
+        <v>0.4757079327588224</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -3415,19 +3415,19 @@
         <v>181308</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>159357</v>
+        <v>159802</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>202584</v>
+        <v>199816</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4551084217343574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4000079235727327</v>
+        <v>0.4011242310776203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.508512602904575</v>
+        <v>0.5015655326487309</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>373</v>
@@ -3436,19 +3436,19 @@
         <v>392299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>361159</v>
+        <v>363789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>423243</v>
+        <v>425993</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4407298613308236</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4057450675989228</v>
+        <v>0.4086998133401978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4754937633097129</v>
+        <v>0.4785828462193</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>280737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256961</v>
+        <v>257809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>302835</v>
+        <v>302657</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5709192595805685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.522566415352029</v>
+        <v>0.5242920672411776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6158594571508437</v>
+        <v>0.615496160355246</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -3486,19 +3486,19 @@
         <v>217077</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195801</v>
+        <v>198569</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239028</v>
+        <v>238583</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5448915782656426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.491487397095425</v>
+        <v>0.498434467351269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5999920764272676</v>
+        <v>0.5988757689223796</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>466</v>
@@ -3507,19 +3507,19 @@
         <v>497814</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>466870</v>
+        <v>464120</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>528954</v>
+        <v>526324</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5592701386691763</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5245062366902871</v>
+        <v>0.5214171537807</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5942549324010771</v>
+        <v>0.5913001866598021</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>141038</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123486</v>
+        <v>123612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159171</v>
+        <v>160361</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4339089850805066</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3799077914330898</v>
+        <v>0.3802981253832909</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.489695071906056</v>
+        <v>0.4933576219392186</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -3632,19 +3632,19 @@
         <v>113928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97752</v>
+        <v>98788</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129815</v>
+        <v>130370</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4351087652193017</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3733283902496679</v>
+        <v>0.377286799328664</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4957821763680562</v>
+        <v>0.4979034615371005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>245</v>
@@ -3653,19 +3653,19 @@
         <v>254966</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>232224</v>
+        <v>230053</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>280916</v>
+        <v>279320</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4344442703980522</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3956928232083223</v>
+        <v>0.391994017332693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4786610821078235</v>
+        <v>0.4759405812977775</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>184003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>165870</v>
+        <v>164680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>201555</v>
+        <v>201429</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5660910149194934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.510304928093944</v>
+        <v>0.5066423780607814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6200922085669103</v>
+        <v>0.6197018746167091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>145</v>
@@ -3703,19 +3703,19 @@
         <v>147910</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132023</v>
+        <v>131468</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>164086</v>
+        <v>163050</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5648912347806984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5042178236319437</v>
+        <v>0.5020965384628997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6266716097503319</v>
+        <v>0.6227132006713361</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>317</v>
@@ -3724,19 +3724,19 @@
         <v>331913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>305963</v>
+        <v>307559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>354655</v>
+        <v>356826</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5655557296019478</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5213389178921772</v>
+        <v>0.5240594187022225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6043071767916784</v>
+        <v>0.608005982667307</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>91044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76688</v>
+        <v>75946</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106533</v>
+        <v>106724</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4076486569655136</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3433710390916887</v>
+        <v>0.3400479970200983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4770003997870664</v>
+        <v>0.477854422774172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -3849,19 +3849,19 @@
         <v>73896</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61461</v>
+        <v>61436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87452</v>
+        <v>87550</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4496597114840544</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3739938238475067</v>
+        <v>0.3738431320708832</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5321518462965041</v>
+        <v>0.532745579134521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -3870,19 +3870,19 @@
         <v>164940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146034</v>
+        <v>145287</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186353</v>
+        <v>185321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4254573175689823</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3766903202035507</v>
+        <v>0.374764337319305</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4806916604059399</v>
+        <v>0.4780305159556291</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>132295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116806</v>
+        <v>116615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>146651</v>
+        <v>147393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5923513430344863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5229996002129336</v>
+        <v>0.5221455772258278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6566289609083112</v>
+        <v>0.6599520029799016</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -3920,19 +3920,19 @@
         <v>90441</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76885</v>
+        <v>76787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>102876</v>
+        <v>102901</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5503402885159455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.467848153703496</v>
+        <v>0.4672544208654789</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6260061761524934</v>
+        <v>0.6261568679291168</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>215</v>
@@ -3941,19 +3941,19 @@
         <v>222736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>201323</v>
+        <v>202355</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>241642</v>
+        <v>242389</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5745426824310177</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5193083395940602</v>
+        <v>0.5219694840443709</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6233096797964492</v>
+        <v>0.6252356626806952</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>59299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48037</v>
+        <v>46925</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71079</v>
+        <v>70309</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.467008222292163</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.378315361055358</v>
+        <v>0.3695547770137799</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5597843582881775</v>
+        <v>0.5537183190259169</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -4066,19 +4066,19 @@
         <v>38048</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29047</v>
+        <v>29619</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47699</v>
+        <v>47674</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4156387144202747</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3173073762826655</v>
+        <v>0.3235579659261094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5210625384429152</v>
+        <v>0.5207896179449618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -4087,19 +4087,19 @@
         <v>97347</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82779</v>
+        <v>83403</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112723</v>
+        <v>114377</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.445488634097929</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3788205820029439</v>
+        <v>0.381676863202582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5158531601880924</v>
+        <v>0.5234228203804725</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>67677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55897</v>
+        <v>56667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78939</v>
+        <v>80051</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.532991777707837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4402156417118224</v>
+        <v>0.4462816809740831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6216846389446421</v>
+        <v>0.6304452229862201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -4137,19 +4137,19 @@
         <v>53493</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43842</v>
+        <v>43867</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62494</v>
+        <v>61922</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5843612855797253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4789374615570848</v>
+        <v>0.479210382055038</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6826926237173346</v>
+        <v>0.6764420340738907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -4158,19 +4158,19 @@
         <v>121170</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105794</v>
+        <v>104140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>135738</v>
+        <v>135114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5545113659020711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4841468398119077</v>
+        <v>0.4765771796195275</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6211794179970561</v>
+        <v>0.6183231367974181</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>502372</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>471293</v>
+        <v>464865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>538054</v>
+        <v>538360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4304505335124286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4038213228275663</v>
+        <v>0.3983130547652642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.461024587011257</v>
+        <v>0.4612862400771322</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>393</v>
@@ -4283,19 +4283,19 @@
         <v>407180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>377944</v>
+        <v>377586</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>437002</v>
+        <v>435497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4444707567436453</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.412557431648723</v>
+        <v>0.4121665535479466</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4770242521610473</v>
+        <v>0.4753813519600802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>860</v>
@@ -4304,19 +4304,19 @@
         <v>909552</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>862766</v>
+        <v>866627</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>951330</v>
+        <v>957810</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4366160616216783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4141573113246094</v>
+        <v>0.4160106982342124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4566708140542254</v>
+        <v>0.4597816155729423</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>664712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>629030</v>
+        <v>628724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>695791</v>
+        <v>702219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5695494664875713</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5389754129887431</v>
+        <v>0.538713759922868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5961786771724339</v>
+        <v>0.6016869452347362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>495</v>
@@ -4354,19 +4354,19 @@
         <v>508920</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>479098</v>
+        <v>480603</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>538156</v>
+        <v>538514</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5555292432563547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5229757478389527</v>
+        <v>0.5246186480399198</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.587442568351277</v>
+        <v>0.5878334464520536</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1113</v>
@@ -4375,19 +4375,19 @@
         <v>1173633</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1131855</v>
+        <v>1125375</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1220419</v>
+        <v>1216558</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5633839383783217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5433291859457747</v>
+        <v>0.5402183844270577</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5858426886753907</v>
+        <v>0.5839893017657877</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>54742</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43031</v>
+        <v>41848</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67848</v>
+        <v>68694</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2905306837349568</v>
+        <v>0.2905306837349569</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2283782035648723</v>
+        <v>0.222100988546979</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3600884330944496</v>
+        <v>0.3645776209968224</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -4740,19 +4740,19 @@
         <v>73235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62399</v>
+        <v>62668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84582</v>
+        <v>83771</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5063965835840023</v>
+        <v>0.5063965835840022</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4314724281261914</v>
+        <v>0.4333320162392935</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5848624325055989</v>
+        <v>0.5792520652415911</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -4761,19 +4761,19 @@
         <v>127976</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>111027</v>
+        <v>110788</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144708</v>
+        <v>146278</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3842681068104101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3333760215848441</v>
+        <v>0.3326568860964053</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4345089488314821</v>
+        <v>0.4392204761903997</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>133679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120573</v>
+        <v>119727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>145390</v>
+        <v>146573</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7094693162650433</v>
+        <v>0.7094693162650432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6399115669055504</v>
+        <v>0.6354223790031773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7716217964351276</v>
+        <v>0.777899011453021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -4811,19 +4811,19 @@
         <v>71384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60037</v>
+        <v>60848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82220</v>
+        <v>81951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4936034164159978</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4151375674944011</v>
+        <v>0.4207479347584085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5685275718738083</v>
+        <v>0.5666679837607067</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>222</v>
@@ -4832,19 +4832,19 @@
         <v>205063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>188331</v>
+        <v>186761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>222012</v>
+        <v>222251</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.61573189318959</v>
+        <v>0.6157318931895899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5654910511685179</v>
+        <v>0.5607795238096003</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6666239784151559</v>
+        <v>0.6673431139035948</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>82493</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68121</v>
+        <v>65950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100104</v>
+        <v>97825</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3369659502633946</v>
+        <v>0.3369659502633945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2782591739943879</v>
+        <v>0.269388761913734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4089007669104842</v>
+        <v>0.3995908932555267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>124</v>
@@ -4957,19 +4957,19 @@
         <v>90801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77752</v>
+        <v>78201</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104428</v>
+        <v>104227</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4161621510335506</v>
+        <v>0.4161621510335507</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3563561905289008</v>
+        <v>0.3584153011249493</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4786211536617043</v>
+        <v>0.4776957825802841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>202</v>
@@ -4978,19 +4978,19 @@
         <v>173294</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>152612</v>
+        <v>151203</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>195610</v>
+        <v>195436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3742869211584978</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3296168358750505</v>
+        <v>0.326573473521708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4224864275059406</v>
+        <v>0.4221099189863582</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>162319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>144708</v>
+        <v>146987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176691</v>
+        <v>178862</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6630340497366055</v>
+        <v>0.6630340497366054</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5910992330895158</v>
+        <v>0.6004091067444738</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7217408260056121</v>
+        <v>0.7306112380862658</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>162</v>
@@ -5028,19 +5028,19 @@
         <v>127385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>113758</v>
+        <v>113959</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>140434</v>
+        <v>139985</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5838378489664493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5213788463382957</v>
+        <v>0.5223042174197158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6436438094710992</v>
+        <v>0.6415846988750507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>298</v>
@@ -5049,19 +5049,19 @@
         <v>289704</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>267388</v>
+        <v>267562</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>310386</v>
+        <v>311795</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6257130788415022</v>
+        <v>0.6257130788415023</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5775135724940597</v>
+        <v>0.5778900810136418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6703831641249496</v>
+        <v>0.6734265264782919</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>89594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74492</v>
+        <v>73348</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108846</v>
+        <v>108229</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3636565807130666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3023569128602384</v>
+        <v>0.2977146386510333</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4417989107607241</v>
+        <v>0.4392945011048071</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -5174,19 +5174,19 @@
         <v>71181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60227</v>
+        <v>60503</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82129</v>
+        <v>82757</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4007518293587827</v>
+        <v>0.4007518293587826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3390824515653994</v>
+        <v>0.3406381602005736</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4623884905591792</v>
+        <v>0.4659277882455508</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>190</v>
@@ -5195,19 +5195,19 @@
         <v>160775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140553</v>
+        <v>143372</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181296</v>
+        <v>181961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3791965908998975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3315011156460542</v>
+        <v>0.3381506009353662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4275954094203979</v>
+        <v>0.4291653553513469</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>156777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137525</v>
+        <v>138142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>171879</v>
+        <v>173023</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6363434192869335</v>
+        <v>0.6363434192869334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5582010892392759</v>
+        <v>0.5607054988951919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6976430871397616</v>
+        <v>0.7022853613489668</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -5245,19 +5245,19 @@
         <v>106437</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95489</v>
+        <v>94861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117391</v>
+        <v>117115</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5992481706412175</v>
+        <v>0.5992481706412173</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5376115094408213</v>
+        <v>0.5340722117544492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6609175484346006</v>
+        <v>0.6593618397994265</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>287</v>
@@ -5266,19 +5266,19 @@
         <v>263214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>242693</v>
+        <v>242028</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>283436</v>
+        <v>280617</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6208034091001023</v>
+        <v>0.6208034091001027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5724045905796019</v>
+        <v>0.5708346446486533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6684988843539462</v>
+        <v>0.6618493990646338</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>88394</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73811</v>
+        <v>72200</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105429</v>
+        <v>103953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.434131494871269</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3625107718725031</v>
+        <v>0.3546005989233598</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5178000048336131</v>
+        <v>0.5105505837944677</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -5391,19 +5391,19 @@
         <v>71092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58283</v>
+        <v>59455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82851</v>
+        <v>82029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.454951464306764</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3729798639238102</v>
+        <v>0.3804853749837041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5302064250936914</v>
+        <v>0.5249455617245551</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>171</v>
@@ -5412,19 +5412,19 @@
         <v>159485</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140123</v>
+        <v>138714</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180201</v>
+        <v>178855</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4431718378106085</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3893679468891511</v>
+        <v>0.3854532727929523</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.500736403469454</v>
+        <v>0.4969967716598145</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>115216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98181</v>
+        <v>99657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129799</v>
+        <v>131410</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.565868505128731</v>
+        <v>0.5658685051287311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4821999951663871</v>
+        <v>0.4894494162055319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.637489228127497</v>
+        <v>0.6453994010766402</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -5462,19 +5462,19 @@
         <v>85170</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73411</v>
+        <v>74233</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97979</v>
+        <v>96807</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.545048535693236</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4697935749063086</v>
+        <v>0.4750544382754451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6270201360761898</v>
+        <v>0.6195146250162958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>222</v>
@@ -5483,19 +5483,19 @@
         <v>200387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>179671</v>
+        <v>181017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>219749</v>
+        <v>221158</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5568281621893915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.499263596530546</v>
+        <v>0.5030032283401855</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6106320531108489</v>
+        <v>0.6145467272070478</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>315223</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>283475</v>
+        <v>284525</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>347025</v>
+        <v>348320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.356904884729713</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.320958509570775</v>
+        <v>0.3221473110953689</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3929125610668885</v>
+        <v>0.3943778007264758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>418</v>
@@ -5608,19 +5608,19 @@
         <v>306308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>282106</v>
+        <v>283603</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>332020</v>
+        <v>330412</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4396644654876481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4049255643344945</v>
+        <v>0.4070749112824751</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4765705663686217</v>
+        <v>0.4742628769149185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>709</v>
@@ -5629,19 +5629,19 @@
         <v>621531</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>578897</v>
+        <v>579122</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>660525</v>
+        <v>660609</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3933992426395349</v>
+        <v>0.3933992426395348</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3664138755982307</v>
+        <v>0.366556803378649</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4180808556989899</v>
+        <v>0.4181340382427646</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>567990</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>536188</v>
+        <v>534893</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599738</v>
+        <v>598688</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.643095115270287</v>
+        <v>0.6430951152702868</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6070874389331116</v>
+        <v>0.6056221992735243</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6790414904292251</v>
+        <v>0.6778526889046314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>521</v>
@@ -5679,19 +5679,19 @@
         <v>390377</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>364665</v>
+        <v>366273</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>414579</v>
+        <v>413082</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.560335534512352</v>
+        <v>0.5603355345123519</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5234294336313779</v>
+        <v>0.5257371230850816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5950744356655053</v>
+        <v>0.592925088717525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1029</v>
@@ -5700,19 +5700,19 @@
         <v>958367</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>919373</v>
+        <v>919289</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1001001</v>
+        <v>1000776</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6066007573604653</v>
+        <v>0.606600757360465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5819191443010101</v>
+        <v>0.5818659617572355</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6335861244017695</v>
+        <v>0.6334431966213515</v>
       </c>
     </row>
     <row r="18">
